--- a/equityDataSet.xlsx
+++ b/equityDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardelatorretorres/Documents/GitHub/riskManagementSuiteR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D98441-99F6-E04B-BC7A-C15D585EA73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F685A4-EE63-B640-8969-FAC0F9F72A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{D13046B5-B528-7F44-94FB-29179F10DC75}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
